--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F70B05-3DD4-44D6-A445-952FB659873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9893C13-FC90-4C83-B527-C4473F742C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1C743260-7420-439C-A407-8CB1E9CF6401}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -750,6 +750,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B61119-3FBF-42E7-9490-3AB4B456384F}">
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1149,7 @@
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
@@ -1169,18 +1170,21 @@
       <c r="C14" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27"/>
       <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28"/>
       <c r="C16" s="15" t="s">
         <v>58</v>
       </c>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual Testing Project  Daraz Sign up and Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9893C13-FC90-4C83-B527-C4473F742C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5EC9D6-9FEA-4372-928C-8B6F3B52D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1C743260-7420-439C-A407-8CB1E9CF6401}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Project Name</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>Test data (valid/invalid credentials) is ready</t>
-  </si>
-  <si>
-    <t>All critical and high-severity defects are fixed and retested</t>
-  </si>
-  <si>
-    <t>Test cases for Sign Up and Login executed successfully</t>
   </si>
   <si>
     <r>
@@ -683,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -750,7 +744,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B61119-3FBF-42E7-9490-3AB4B456384F}">
-  <dimension ref="B1:J50"/>
+  <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="121" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1081,18 +1074,18 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23"/>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1109,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
         <v>5</v>
       </c>
@@ -1132,57 +1125,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31"/>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27"/>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28"/>
       <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18"/>
     </row>
@@ -1223,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1268,34 +1260,30 @@
       <c r="B29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
-      <c r="C30" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
       <c r="C32" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="28"/>
       <c r="C33" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,25 +1291,25 @@
         <v>12</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27"/>
       <c r="C35" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
       <c r="C37" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1329,37 +1317,37 @@
         <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="27"/>
       <c r="C39" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="27"/>
       <c r="C40" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="27"/>
       <c r="C41" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28"/>
       <c r="C42" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -1374,13 +1362,13 @@
     </row>
     <row r="47" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>2</v>
@@ -1388,10 +1376,10 @@
     </row>
     <row r="48" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="17">
@@ -1400,7 +1388,7 @@
     </row>
     <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -1408,7 +1396,7 @@
     </row>
     <row r="50" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="4"/>
